--- a/biology/Écologie/Oxyde_de_cuivre(I)/Oxyde_de_cuivre(I).xlsx
+++ b/biology/Écologie/Oxyde_de_cuivre(I)/Oxyde_de_cuivre(I).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'oxyde de cuivre(I), ou oxyde cuivreux (parfois, sous-oxyde de cuivre), est un composé du cuivre et de l'oxygène, de formule chimique Cu2O.
@@ -513,7 +525,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colorant du verre, des céramiques et émaux, catalyseur, biocide (antimicrobien et fongicide) utilisé dans les antifoulings et pour protéger les filets de pêche. L'oxyde cuivreux est employé comme pigment pour le verre, les céramiques et les émaux. Il dope les cellules photoélectriques, et est présent dans les pâtes de brasure, en galvanoplastie. Il est aussi, refroidi à température critique, un puissant supraconducteur (cf. supraconductivité).
 </t>
@@ -544,7 +558,9 @@
           <t>Toxicologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toxique lorsqu’absorbé par voie respiratoire. Il est classé D1B au Canada (Matière toxique ayant des effets immédiats graves).
 Il n’a pas n’a pas été classé cancérigène ni génotoxique par l’Union européenne (JOCE, 2004).
